--- a/IMPAcTB_Lung_Option1/cfu_revised_MHT.xlsx
+++ b/IMPAcTB_Lung_Option1/cfu_revised_MHT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelaht/Desktop/**Henao/*Active Approved Grants/IMPAc-TB BAA/*2024/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/rstor-henao_lab/Pablo/CFU_Pipeline/IMPAcTB_Lung_Option1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40A08F29-BE0B-D341-88CE-62689F90D5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C8C880-1784-A44B-AD57-BEFC52F24478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="660" windowWidth="27240" windowHeight="15180" activeTab="1" xr2:uid="{5EF3018C-7824-E142-B3F1-F186592C914F}"/>
+    <workbookView xWindow="1780" yWindow="660" windowWidth="27240" windowHeight="15180" xr2:uid="{5EF3018C-7824-E142-B3F1-F186592C914F}"/>
   </bookViews>
   <sheets>
     <sheet name="females" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -460,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7F3710-E958-714F-B016-4974D46F4EFC}">
-  <dimension ref="A3:F49"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,24 +470,64 @@
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>434090.90909090906</v>
+      </c>
+      <c r="F2">
+        <v>5.6375806907615402</v>
+      </c>
+    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>772727.27272727271</v>
+      </c>
+      <c r="F3">
+        <v>5.8880262405560675</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -502,13 +541,13 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>434090.90909090906</v>
+        <v>545454.54545454541</v>
       </c>
       <c r="F4">
-        <v>5.6375806907615402</v>
+        <v>5.7367585652254185</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -522,13 +561,13 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1">
-        <v>772727.27272727271</v>
+        <v>1181818.1818181816</v>
       </c>
       <c r="F5">
-        <v>5.8880262405560675</v>
+        <v>6.0725506671486116</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -536,19 +575,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>545454.54545454541</v>
+        <v>345454.54545454541</v>
       </c>
       <c r="F6">
-        <v>5.7367585652254185</v>
+        <v>5.5383909114585848</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -556,19 +595,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>1181818.1818181816</v>
+        <v>263636.36363636365</v>
       </c>
       <c r="F7">
-        <v>6.0725506671486116</v>
+        <v>5.4210053127407312</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -582,13 +621,13 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>345454.54545454541</v>
+        <v>206818.18181818179</v>
       </c>
       <c r="F8">
-        <v>5.5383909114585848</v>
+        <v>5.315588715834906</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -602,13 +641,13 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1">
-        <v>263636.36363636365</v>
+        <v>200000</v>
       </c>
       <c r="F9">
-        <v>5.4210053127407312</v>
+        <v>5.3010299956639813</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -616,19 +655,19 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>206818.18181818179</v>
+        <v>450000</v>
       </c>
       <c r="F10">
-        <v>5.315588715834906</v>
+        <v>5.653212513775344</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -636,19 +675,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>200000</v>
+        <v>345454.54545454541</v>
       </c>
       <c r="F11">
-        <v>5.3010299956639813</v>
+        <v>5.5383909114585848</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -662,13 +701,13 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1">
-        <v>450000</v>
+        <v>2909090.9090909092</v>
       </c>
       <c r="F12">
-        <v>5.653212513775344</v>
+        <v>6.4637572931616809</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -682,13 +721,13 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1">
-        <v>345454.54545454541</v>
+        <v>459090.90909090906</v>
       </c>
       <c r="F13">
-        <v>5.5383909114585848</v>
+        <v>5.6618986929604365</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -696,19 +735,19 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>2909090.9090909092</v>
+        <v>197727.27272727271</v>
       </c>
       <c r="F14">
-        <v>6.4637572931616809</v>
+        <v>5.2960665761324313</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -716,19 +755,19 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1">
-        <v>459090.90909090906</v>
+        <v>345454.54545454541</v>
       </c>
       <c r="F15">
-        <v>5.6618986929604365</v>
+        <v>5.5383909114585848</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -742,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1">
-        <v>197727.27272727271</v>
+        <v>168181.81818181818</v>
       </c>
       <c r="F16">
-        <v>5.2960665761324313</v>
+        <v>5.2257790432447884</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -762,53 +801,55 @@
         <v>5</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" s="1">
-        <v>345454.54545454541</v>
+        <v>313636.36363636365</v>
       </c>
       <c r="F17">
-        <v>5.5383909114585848</v>
+        <v>5.496426409915049</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>168181.81818181818</v>
+        <v>306818.18181818182</v>
       </c>
       <c r="F18">
-        <v>5.2257790432447884</v>
+        <f>LOG(E18)</f>
+        <v>5.4868810920088187</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1">
-        <v>313636.36363636365</v>
+        <v>977272.72727272729</v>
       </c>
       <c r="F19">
-        <v>5.496426409915049</v>
+        <f t="shared" ref="F19:F47" si="0">LOG(E19)</f>
+        <v>5.9900157790933992</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -822,14 +863,14 @@
         <v>5</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" s="1">
-        <v>306818.18181818182</v>
+        <v>1159090.9090909092</v>
       </c>
       <c r="F20">
-        <f>LOG(E20)</f>
-        <v>5.4868810920088187</v>
+        <f t="shared" si="0"/>
+        <v>6.0641174996117488</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -843,14 +884,14 @@
         <v>5</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" s="1">
-        <v>977272.72727272729</v>
+        <v>1795454.5454545454</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21:F49" si="0">LOG(E21)</f>
-        <v>5.9900157790933992</v>
+        <f t="shared" si="0"/>
+        <v>6.254174414804254</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -858,20 +899,20 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>1159090.9090909092</v>
+        <v>95454.545454545441</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>6.0641174996117488</v>
+        <v>4.9797966139117129</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -879,20 +920,20 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1">
-        <v>1795454.5454545454</v>
+        <v>131818.18181818182</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>6.254174414804254</v>
+        <v>5.1199753170767499</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -906,14 +947,14 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" s="1">
-        <v>95454.545454545441</v>
+        <v>134090.90909090909</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>4.9797966139117129</v>
+        <v>5.1273993351559568</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -927,14 +968,14 @@
         <v>5</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25" s="1">
-        <v>131818.18181818182</v>
+        <v>184090.90909090906</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>5.1199753170767499</v>
+        <v>5.2650323423924625</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -942,20 +983,20 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>134090.90909090909</v>
+        <v>225000</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>5.1273993351559568</v>
+        <v>5.3521825181113627</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -963,20 +1004,20 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27" s="1">
-        <v>184090.90909090906</v>
+        <v>195454.54545454544</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>5.2650323423924625</v>
+        <v>5.2910457747573805</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -990,14 +1031,14 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" s="1">
-        <v>225000</v>
+        <v>30954545.454545453</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>5.3521825181113627</v>
+        <v>7.4907244310905785</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1005,20 +1046,20 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>195454.54545454544</v>
+        <v>59090.909090909088</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>5.2910457747573805</v>
+        <v>4.7715206714846303</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1026,20 +1067,20 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" s="1">
-        <v>30954545.454545453</v>
+        <v>213636.36363636365</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>7.4907244310905785</v>
+        <v>5.3296751771135114</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1053,14 +1094,14 @@
         <v>5</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" s="1">
-        <v>59090.909090909088</v>
+        <v>438636.36363636365</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>4.7715206714846303</v>
+        <v>5.642104632521586</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1074,56 +1115,56 @@
         <v>5</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E32" s="1">
-        <v>213636.36363636365</v>
+        <v>159090.90909090909</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>5.3296751771135114</v>
+        <v>5.2016453635280691</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>438636.36363636365</v>
+        <v>545454.54545454541</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>5.642104632521586</v>
+        <v>5.7367585652254185</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E34" s="1">
-        <v>159090.90909090909</v>
+        <v>363636.36363636365</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>5.2016453635280691</v>
+        <v>5.5606673061697371</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1137,14 +1178,14 @@
         <v>5</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35" s="1">
-        <v>545454.54545454541</v>
+        <v>136363.63636363635</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>5.7367585652254185</v>
+        <v>5.134698573897456</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1158,14 +1199,14 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E36" s="1">
-        <v>363636.36363636365</v>
+        <v>181818.18181818182</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>5.5606673061697371</v>
+        <v>5.2596373105057559</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1173,20 +1214,20 @@
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>136363.63636363635</v>
+        <v>227272.72727272726</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>5.134698573897456</v>
+        <v>5.3565473235138121</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1194,20 +1235,20 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E38" s="1">
-        <v>181818.18181818182</v>
+        <v>613636.36363636365</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>5.2596373105057559</v>
+        <v>5.7879110876727999</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1221,14 +1262,14 @@
         <v>5</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39" s="1">
-        <v>227272.72727272726</v>
+        <v>1454545.4545454544</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>5.3565473235138121</v>
+        <v>6.1627272974976997</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1242,14 +1283,14 @@
         <v>5</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E40" s="1">
-        <v>613636.36363636365</v>
+        <v>90909.090909090912</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>5.7879110876727999</v>
+        <v>4.9586073148417746</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1257,20 +1298,20 @@
         <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>1454545.4545454544</v>
+        <v>590909.09090909082</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>6.1627272974976997</v>
+        <v>5.7715206714846303</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1278,20 +1319,20 @@
         <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E42" s="1">
-        <v>90909.090909090912</v>
+        <v>1318181.8181818181</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>4.9586073148417746</v>
+        <v>6.1199753170767499</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1305,14 +1346,14 @@
         <v>5</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E43" s="1">
-        <v>590909.09090909082</v>
+        <v>272727.27272727271</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
-        <v>5.7715206714846303</v>
+        <v>5.4357285695614372</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1326,14 +1367,14 @@
         <v>5</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E44" s="1">
-        <v>1318181.8181818181</v>
+        <v>295454.54545454541</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
-        <v>6.1199753170767499</v>
+        <v>5.4704906758206491</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1341,20 +1382,20 @@
         <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1">
-        <v>272727.27272727271</v>
+        <v>45454.545454545456</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
-        <v>5.4357285695614372</v>
+        <v>4.6575773191777934</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1362,20 +1403,20 @@
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E46" s="1">
-        <v>295454.54545454541</v>
+        <v>272727.27272727271</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
-        <v>5.4704906758206491</v>
+        <v>5.4357285695614372</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1389,54 +1430,12 @@
         <v>5</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E47" s="1">
-        <v>45454.545454545456</v>
+        <v>68181818.181818187</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
-        <v>4.6575773191777934</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48" s="1">
-        <v>272727.27272727271</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>5.4357285695614372</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="E49" s="1">
-        <v>68181818.181818187</v>
-      </c>
-      <c r="F49">
         <f t="shared" si="0"/>
         <v>7.8336685782334747</v>
       </c>
@@ -1449,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3387F7DD-4151-9348-861A-154D574D2C6D}">
-  <dimension ref="A3:F44"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1460,24 +1459,66 @@
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1306818.1818181816</v>
+      </c>
+      <c r="F2">
+        <f>LOG(E2)</f>
+        <v>6.1162151682034427</v>
+      </c>
+    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2931818.1818181816</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F42" si="0">LOG(E3)</f>
+        <v>6.4671370338130618</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1491,14 +1532,14 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>1306818.1818181816</v>
+        <v>4409090.9090909092</v>
       </c>
       <c r="F4">
-        <f>LOG(E4)</f>
-        <v>6.1162151682034427</v>
+        <f t="shared" si="0"/>
+        <v>6.6443490534440386</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1512,14 +1553,14 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1">
-        <v>2931818.1818181816</v>
+        <v>4840909.0909090899</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F44" si="0">LOG(E5)</f>
-        <v>6.4671370338130618</v>
+        <f t="shared" si="0"/>
+        <v>6.6849269269525502</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1527,20 +1568,20 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>4409090.9090909092</v>
+        <v>577272.72727272729</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>6.6443490534440386</v>
+        <v>5.7613810401337506</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1548,20 +1589,20 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>4840909.0909090899</v>
+        <v>636363.63636363635</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>6.6849269269525502</v>
+        <v>5.8037053548560316</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1569,7 +1610,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1578,11 +1619,11 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>577272.72727272729</v>
+        <v>1954545.4545454544</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>5.7613810401337506</v>
+        <v>6.2910457747573805</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1590,7 +1631,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -1599,11 +1640,11 @@
         <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>636363.63636363635</v>
+        <v>609090.90909090906</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>5.8037053548560316</v>
+        <v>5.7846821175426015</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1617,14 +1658,14 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1">
-        <v>1954545.4545454544</v>
+        <v>1318181.8181818181</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>6.2910457747573805</v>
+        <v>6.1199753170767499</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1638,14 +1679,14 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1">
-        <v>609090.90909090906</v>
+        <v>543181.81818181812</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>5.7846821175426015</v>
+        <v>5.7349452244619501</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1653,20 +1694,20 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>1318181.8181818181</v>
+        <v>90909.090909090912</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>6.1199753170767499</v>
+        <v>4.9586073148417746</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1674,20 +1715,20 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>543181.81818181812</v>
+        <v>279545.45454545453</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>5.7349452244619501</v>
+        <v>5.4464524349532102</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1701,14 +1742,14 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1">
-        <v>90909.090909090912</v>
+        <v>140909.09090909091</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>4.9586073148417746</v>
+        <v>5.1489390130120665</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1722,56 +1763,56 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1">
-        <v>279545.45454545453</v>
+        <v>295454.54545454541</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>5.4464524349532102</v>
+        <v>5.4704906758206491</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>140909.09090909091</v>
+        <v>375000</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>5.1489390130120665</v>
+        <v>5.5740312677277188</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>295454.54545454541</v>
+        <v>863636.36363636365</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>5.4704906758206491</v>
+        <v>5.9363309201306231</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1785,14 +1826,14 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1">
-        <v>375000</v>
+        <v>372727.27272727271</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>5.5740312677277188</v>
+        <v>5.5713911715615101</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1806,14 +1847,14 @@
         <v>14</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19" s="1">
-        <v>863636.36363636365</v>
+        <v>590909.09090909082</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>5.9363309201306231</v>
+        <v>5.7715206714846303</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1821,20 +1862,20 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>372727.27272727271</v>
+        <v>222727.27272727274</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>5.5713911715615101</v>
+        <v>5.3477733992063072</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1842,20 +1883,20 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
-        <v>590909.09090909082</v>
+        <v>409090.90909090906</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>5.7715206714846303</v>
+        <v>5.6118198286171186</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1869,14 +1910,14 @@
         <v>14</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" s="1">
-        <v>222727.27272727274</v>
+        <v>188636.36363636365</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>5.3477733992063072</v>
+        <v>5.2756254158898868</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1884,20 +1925,20 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>409090.90909090906</v>
+        <v>527272.72727272718</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>5.6118198286171186</v>
+        <v>5.7220353084047124</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1905,20 +1946,20 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1">
-        <v>188636.36363636365</v>
+        <v>454545.45454545453</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>5.2756254158898868</v>
+        <v>5.6575773191777934</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1932,14 +1973,14 @@
         <v>14</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25" s="1">
-        <v>527272.72727272718</v>
+        <v>727272.72727272729</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>5.7220353084047124</v>
+        <v>5.8616973018337184</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1947,20 +1988,20 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>454545.45454545453</v>
+        <v>750000</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>5.6575773191777934</v>
+        <v>5.8750612633917001</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1968,20 +2009,20 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="1">
-        <v>727272.72727272729</v>
+        <v>2068181.8181818181</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>5.8616973018337184</v>
+        <v>6.315588715834906</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1995,14 +2036,14 @@
         <v>14</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" s="1">
-        <v>750000</v>
+        <v>300000</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>5.8750612633917001</v>
+        <v>5.4771212547196626</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2016,56 +2057,56 @@
         <v>14</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29" s="1">
-        <v>2068181.8181818181</v>
+        <v>363636.36363636365</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>6.315588715834906</v>
+        <v>5.5606673061697371</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>300000</v>
+        <v>659090.90909090906</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>5.4771212547196626</v>
+        <v>5.8189453214127687</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E31" s="1">
-        <v>363636.36363636365</v>
+        <v>500000</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>5.5606673061697371</v>
+        <v>5.6989700043360187</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -2079,14 +2120,14 @@
         <v>14</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32" s="1">
-        <v>659090.90909090906</v>
+        <v>1113636.3636363635</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>5.8189453214127687</v>
+        <v>6.046743403542326</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -2094,20 +2135,20 @@
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>500000</v>
+        <v>181818.18181818182</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>5.6989700043360187</v>
+        <v>5.2596373105057559</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -2115,20 +2156,20 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" s="1">
-        <v>1113636.3636363635</v>
+        <v>522727.27272727271</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>6.046743403542326</v>
+        <v>5.7182751595314052</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2142,14 +2183,14 @@
         <v>14</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35" s="1">
-        <v>181818.18181818182</v>
+        <v>704545.45454545459</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>5.2596373105057559</v>
+        <v>5.8479090173480852</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -2157,20 +2198,20 @@
         <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>522727.27272727271</v>
+        <v>1227272.7272727273</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>5.7182751595314052</v>
+        <v>6.0889410833367812</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2178,20 +2219,20 @@
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" s="1">
-        <v>704545.45454545459</v>
+        <v>363636.36363636365</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>5.8479090173480852</v>
+        <v>5.5606673061697371</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -2205,14 +2246,14 @@
         <v>14</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38" s="1">
-        <v>1227272.7272727273</v>
+        <v>181818.18181818182</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>6.0889410833367812</v>
+        <v>5.2596373105057559</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -2226,14 +2267,14 @@
         <v>14</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E39" s="1">
-        <v>363636.36363636365</v>
+        <v>727272.72727272729</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>5.5606673061697371</v>
+        <v>5.8616973018337184</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -2241,20 +2282,20 @@
         <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1">
-        <v>181818.18181818182</v>
+        <v>295454.54545454541</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>5.2596373105057559</v>
+        <v>5.4704906758206491</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -2262,20 +2303,20 @@
         <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E41" s="1">
-        <v>727272.72727272729</v>
+        <v>136363.63636363635</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>5.8616973018337184</v>
+        <v>5.134698573897456</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -2289,54 +2330,12 @@
         <v>14</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E42" s="1">
-        <v>295454.54545454541</v>
+        <v>363636.36363636365</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
-        <v>5.4704906758206491</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43" s="1">
-        <v>136363.63636363635</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>5.134698573897456</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44" s="1">
-        <v>363636.36363636365</v>
-      </c>
-      <c r="F44">
         <f t="shared" si="0"/>
         <v>5.5606673061697371</v>
       </c>
